--- a/src/main/resources/files/cities.xlsx
+++ b/src/main/resources/files/cities.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03979839-CF65-41C7-8DEB-5A8BA35D8DED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -31,12 +32,21 @@
   </si>
   <si>
     <t>Abuja</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Ikeja</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,11 +357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,6 +386,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/files/cities.xlsx
+++ b/src/main/resources/files/cities.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03979839-CF65-41C7-8DEB-5A8BA35D8DED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D906BC5C-13BC-4A7C-9011-7F5E2ADA2946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Abuja</t>
-  </si>
-  <si>
-    <t>Manitoba</t>
-  </si>
-  <si>
-    <t>Ikeja</t>
-  </si>
-  <si>
-    <t>Istanbul</t>
+    <t>SEOUL, South Korea</t>
+  </si>
+  <si>
+    <t>São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Bombay, India</t>
+  </si>
+  <si>
+    <t>JAKARTA, Indonesia</t>
+  </si>
+  <si>
+    <t>Karachi, Pakistan</t>
+  </si>
+  <si>
+    <t>MOSKVA (Moscow), Russia</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>MEXICO (Mexico City)Mexico8,235,000</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>TOKYO, Japan</t>
+  </si>
+  <si>
+    <t>New York (NY), USA</t>
+  </si>
+  <si>
+    <t>BANGKOK, Thailand</t>
+  </si>
+  <si>
+    <t>BEIJING, China</t>
+  </si>
+  <si>
+    <t>Delhi, India</t>
+  </si>
+  <si>
+    <t>LONDON, UK</t>
+  </si>
+  <si>
+    <t>HongKong, China</t>
+  </si>
+  <si>
+    <t>CAIRO, Egypt</t>
+  </si>
+  <si>
+    <t>TEHRAN, Iran</t>
+  </si>
+  <si>
+    <t>BOGOTA, Colombia</t>
+  </si>
+  <si>
+    <t>Bandung, Indonesia</t>
+  </si>
+  <si>
+    <t>Tianjin, China</t>
+  </si>
+  <si>
+    <t>LIMA, Peru</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>Lahore, Pakistan</t>
+  </si>
+  <si>
+    <t>Bogor, Indonesia</t>
+  </si>
+  <si>
+    <t>SANTIAGO, Chile</t>
+  </si>
+  <si>
+    <t>St Petersburg, Russia</t>
+  </si>
+  <si>
+    <t>Shenyang, China</t>
+  </si>
+  <si>
+    <t>Calcutta, India</t>
+  </si>
+  <si>
+    <t>Wuhan, China</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>Guangzhou, China</t>
+  </si>
+  <si>
+    <t>SINGAPORE, Singapore</t>
+  </si>
+  <si>
+    <t>Madras, India</t>
+  </si>
+  <si>
+    <t>BAGHDAD, Iraq</t>
+  </si>
+  <si>
+    <t>Pusan, South Korea</t>
+  </si>
+  <si>
+    <t>Los Angeles (CA), USA</t>
+  </si>
+  <si>
+    <t>Yokohama, Japan</t>
+  </si>
+  <si>
+    <t>DHAKA, Bangladesh</t>
+  </si>
+  <si>
+    <t>BERLIN, Germany</t>
+  </si>
+  <si>
+    <t>Alexandria, Egypt</t>
+  </si>
+  <si>
+    <t>Bangalore, India</t>
+  </si>
+  <si>
+    <t>Malang, Indonesia</t>
+  </si>
+  <si>
+    <t>Hyderabad, India</t>
+  </si>
+  <si>
+    <t>Chongqing, China</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>Haerbin, China</t>
+  </si>
+  <si>
+    <t>ANKARA, Turkey</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES, Argentina</t>
+  </si>
+  <si>
+    <t>Chengdu, China</t>
+  </si>
+  <si>
+    <t>Ahmedabad, India</t>
+  </si>
+  <si>
+    <t>Casablanca, Morocco</t>
+  </si>
+  <si>
+    <t>Chicago (IL), USA</t>
+  </si>
+  <si>
+    <t>Xian, China</t>
+  </si>
+  <si>
+    <t>MADRID, Spain</t>
+  </si>
+  <si>
+    <t>Surabaya, Indonesia</t>
+  </si>
+  <si>
+    <t>PYONGYANG, NorthKorea</t>
+  </si>
+  <si>
+    <t>Nanjing, China</t>
+  </si>
+  <si>
+    <t>KINSHASA, Congo (Zaire)</t>
+  </si>
+  <si>
+    <t>ROMA, Italy</t>
+  </si>
+  <si>
+    <t>Taipei, China</t>
+  </si>
+  <si>
+    <t>Osaka, Japan</t>
+  </si>
+  <si>
+    <t>KIEV, Ukraine</t>
+  </si>
+  <si>
+    <t>YANGON, Myanmar</t>
+  </si>
+  <si>
+    <t>Toronto, Canada</t>
+  </si>
+  <si>
+    <t>Zibo, China</t>
+  </si>
+  <si>
+    <t>Dalian, China</t>
+  </si>
+  <si>
+    <t>Taegu, South Korea</t>
+  </si>
+  <si>
+    <t>ADDIS ABABA, Ethopia</t>
+  </si>
+  <si>
+    <t>Jinan, China</t>
+  </si>
+  <si>
+    <t>Salvador, Brazil</t>
+  </si>
+  <si>
+    <t>Inchon, South Korea</t>
+  </si>
+  <si>
+    <t>Semarang, Indonesia</t>
+  </si>
+  <si>
+    <t>Giza, Egypt</t>
+  </si>
+  <si>
+    <t>Changchun, China</t>
+  </si>
+  <si>
+    <t>Havanna, Cuba</t>
+  </si>
+  <si>
+    <t>Nagoya, Japan</t>
+  </si>
+  <si>
+    <t>Belo Horizonte, Brazil</t>
+  </si>
+  <si>
+    <t>PARIS, Francis</t>
+  </si>
+  <si>
+    <t>TASHKENT, Uzbekistan</t>
+  </si>
+  <si>
+    <t>Fortaleza, Brazil</t>
+  </si>
+  <si>
+    <t>Sukabumi, Indonesia</t>
+  </si>
+  <si>
+    <t>Cali, Colombia</t>
+  </si>
+  <si>
+    <t>Guayaquil, Ecuador</t>
+  </si>
+  <si>
+    <t>Qingdao, China</t>
+  </si>
+  <si>
+    <t>Izmir, Turkey</t>
+  </si>
+  <si>
+    <t>Cirebon, Indonesia</t>
+  </si>
+  <si>
+    <t>Taiyuan, China</t>
+  </si>
+  <si>
+    <t>BRASILIA, Brazil</t>
+  </si>
+  <si>
+    <t>BUCURESTI, Romania</t>
+  </si>
+  <si>
+    <t>Faisalabad, Pakistan</t>
+  </si>
+  <si>
+    <t>Quezon City, Philippines</t>
+  </si>
+  <si>
+    <t>Medan, Indonesia</t>
+  </si>
+  <si>
+    <t>Houston (TX), USA</t>
+  </si>
+  <si>
+    <t>Abidjan, Côte d’Ivorie</t>
+  </si>
+  <si>
+    <t>Mashhad, Iran</t>
+  </si>
+  <si>
+    <t>Abuja, Nigeria</t>
+  </si>
+  <si>
+    <t>Lagos, Nigeria</t>
+  </si>
+  <si>
+    <t>Ikeja, Nigeria</t>
+  </si>
+  <si>
+    <t>Manitoba, Canada</t>
   </si>
 </sst>
 </file>
@@ -358,13 +640,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -403,7 +688,472 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/files/cities.xlsx
+++ b/src/main/resources/files/cities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D906BC5C-13BC-4A7C-9011-7F5E2ADA2946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4808014-FD5D-4779-940C-1698059EF5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/files/cities.xlsx
+++ b/src/main/resources/files/cities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4808014-FD5D-4779-940C-1698059EF5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D906BC5C-13BC-4A7C-9011-7F5E2ADA2946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
